--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты тестирования" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Результаты тестирования'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Результаты тестирования'!$A$1:$J$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Дата</t>
   </si>
@@ -80,6 +80,70 @@
   </si>
   <si>
     <t>["demo_chunk_1", "demo_chunk_2"]</t>
+  </si>
+  <si>
+    <t>00:05:09</t>
+  </si>
+  <si>
+    <t>Я специализируюсь на неразрушающем контроле и технических областях.  
+Для открытия расчетного счета обычно требуются следующие документы:  
+1. Учредительные документы (устав, учредительный договор)  
+2. Свидетельство о регистрации юридического лица или ИП  
+3. Решение или протокол о создании организации (если требуется)  
+4. Документ, удостоверяющий личность руководителя (паспорт)  
+5. ИНН, ОГРН, КПП (если есть)  
+6. Лицензии или разрешения (если деятельность требует)  
+Рекомендуется уточнить перечень у конкретного банка, так как требования могут различаться.  
+Если хотите, могу помочь с вопросами по документам для НК или другой технической темы.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>0.000452</t>
+  </si>
+  <si>
+    <t>01:57:03</t>
+  </si>
+  <si>
+    <t>Радиографический контроль кто изобрел?</t>
+  </si>
+  <si>
+    <t>Радиографический контроль был разработан на основе методов рентгеновской диагностики, изначально созданных Вильгельмом Конрадом Рентгеном в 1895 году. Однако применение рентгеновских лучей для неразрушающего контроля материалов и сварных соединений было внедрено в промышленность в начале XX века. Точный изобретатель или команда, впервые применившие радиографический контроль для проверки сварных соединений, не выделяются, так как развитие этой методики происходило постепенно, на основе научных исследований и практических разработок в области рентгенологии и материаловедения.
+&lt;b&gt;Кратко:&lt;/b&gt; радиографический контроль как метод был развит на основе открытий Вильгельма Рентгена и последующих научных работ в области рентгеновской диагностики и неразрушающего контроля в начале XX века.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>0.000469</t>
+  </si>
+  <si>
+    <t>02:21:51</t>
+  </si>
+  <si>
+    <t>Что такое УЗК?</t>
+  </si>
+  <si>
+    <t>УЗК — ультразвуковой контроль. Это неразрушающий метод диагностики, основанный на использовании ультразвуковых волн для обнаружения дефектов, контроля толщины и качества сварных соединений, материалов и конструкций. В процессе УЗК ультразвуковые сигналы передаются в объект, а отражения от дефектов или границ материалов регистрируются и анализируются для определения состояния контролируемой детали.</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
+    <t>0.000464</t>
+  </si>
+  <si>
+    <t>["doc349", "doc478", "doc517"]</t>
   </si>
 </sst>
 </file>
@@ -459,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,8 +603,104 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3619</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3653</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4118</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J2"/>
+  <autoFilter ref="A1:J5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Scripts_PYTON\Diagnost_PB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты тестирования" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Результаты тестирования'!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Результаты тестирования'!$A$1:$L$2</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Дата</t>
   </si>
@@ -46,115 +51,60 @@
     <t>Цена $</t>
   </si>
   <si>
-    <t>Чанки</t>
+    <t>Чанк 1</t>
+  </si>
+  <si>
+    <t>Чанк 2</t>
+  </si>
+  <si>
+    <t>Чанк 3</t>
   </si>
   <si>
     <t>2025-05-23</t>
   </si>
   <si>
-    <t>00:01:00</t>
-  </si>
-  <si>
-    <t>Какие документы нужны для открытия расчетного счета?</t>
-  </si>
-  <si>
-    <t>Я специализируюсь на неразрушающем контроле и технических областях. Для открытия расчетного счета обычно требуются следующие документы:
-1. Учредительные документы организации (устав, учредительный договор).
-2. Свидетельство о государственной регистрации или ОГРН.
-3. ИНН и КПП.
-4. Паспорт руководителя и доверенных лиц.
-5. Решение или протокол о назначении руководителя.
-6. Документы, подтверждающие полномочия лиц, подписывающих договор.
-7. Лицензии или разрешения (если деятельность требует).
-Для точных требований лучше обратиться в конкретный банк, так как список может различаться.  
-Если хотите, могу помочь с вопросами по документам для НК или сварочных работ.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10.54</t>
-  </si>
-  <si>
-    <t>0.000451</t>
-  </si>
-  <si>
-    <t>["demo_chunk_1", "demo_chunk_2"]</t>
-  </si>
-  <si>
-    <t>00:05:09</t>
-  </si>
-  <si>
-    <t>Я специализируюсь на неразрушающем контроле и технических областях.  
-Для открытия расчетного счета обычно требуются следующие документы:  
-1. Учредительные документы (устав, учредительный договор)  
-2. Свидетельство о регистрации юридического лица или ИП  
-3. Решение или протокол о создании организации (если требуется)  
-4. Документ, удостоверяющий личность руководителя (паспорт)  
-5. ИНН, ОГРН, КПП (если есть)  
-6. Лицензии или разрешения (если деятельность требует)  
-Рекомендуется уточнить перечень у конкретного банка, так как требования могут различаться.  
-Если хотите, могу помочь с вопросами по документам для НК или другой технической темы.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>0.000452</t>
-  </si>
-  <si>
-    <t>01:57:03</t>
-  </si>
-  <si>
-    <t>Радиографический контроль кто изобрел?</t>
-  </si>
-  <si>
-    <t>Радиографический контроль был разработан на основе методов рентгеновской диагностики, изначально созданных Вильгельмом Конрадом Рентгеном в 1895 году. Однако применение рентгеновских лучей для неразрушающего контроля материалов и сварных соединений было внедрено в промышленность в начале XX века. Точный изобретатель или команда, впервые применившие радиографический контроль для проверки сварных соединений, не выделяются, так как развитие этой методики происходило постепенно, на основе научных исследований и практических разработок в области рентгенологии и материаловедения.
-&lt;b&gt;Кратко:&lt;/b&gt; радиографический контроль как метод был развит на основе открытий Вильгельма Рентгена и последующих научных работ в области рентгеновской диагностики и неразрушающего контроля в начале XX века.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5.98</t>
-  </si>
-  <si>
-    <t>0.000469</t>
-  </si>
-  <si>
-    <t>02:21:51</t>
-  </si>
-  <si>
-    <t>Что такое УЗК?</t>
-  </si>
-  <si>
-    <t>УЗК — ультразвуковой контроль. Это неразрушающий метод диагностики, основанный на использовании ультразвуковых волн для обнаружения дефектов, контроля толщины и качества сварных соединений, материалов и конструкций. В процессе УЗК ультразвуковые сигналы передаются в объект, а отражения от дефектов или границ материалов регистрируются и анализируются для определения состояния контролируемой детали.</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>0.000464</t>
-  </si>
-  <si>
-    <t>["doc349", "doc478", "doc517"]</t>
+    <t xml:space="preserve"> Ультразвуковой контроль труб с литыми деталями?</t>
+  </si>
+  <si>
+    <t>03:04:34</t>
+  </si>
+  <si>
+    <t>Ультразвуковой контроль (УЗК) труб с литыми деталями проводится только со стороны трубы, то есть с внутренней поверхности. Это связано с особенностями структуры литых материалов и возможностью доступа к внутренней поверхности для проведения дефектоскопии. Внешняя поверхность литых деталей обычно не используется для ультразвукового контроля, поскольку структура и наличие пор, включений или дефектов внутри литого металла требуют проведения УЗД со стороны внутренней поверхности для получения достоверных результатов.</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>6.69</t>
+  </si>
+  <si>
+    <t>0.000414</t>
+  </si>
+  <si>
+    <t>doc340
+0.3057
+кается либо уменьшить объем ультразвукового или радиографического контроля, либо заменить этот вид контроля послойным визуальным контролем в процессе сварки с фиксацией результатов в 121 специальном журнале и контролем готового сварного соединения магнитопорошковой или капиллярной дефектоскопией или методом травления. Контроль соединительного стыка трубопровода, подконтрольного органам Госгортехнадзора России, с действующей магистралью (если между ними имеется только одна отключающая задвижка или при контроле не более двух стыков, выполненных при ремонте) может производиться двумя видами контроля — радиографическим и ультразвуковым взамен гидравлического испытания. Такие отступления оформляются совместным техническим решением дирекции электростанции, организации, выполняющей контроль, и специализированной научно- исследовательской организации. 18.5.3. Радиографический и ультразвуковой контроль кольцевых сварных соединений при 100%-ном контроле проводится по всему периметру стыка. Сварн</t>
+  </si>
+  <si>
+    <t>doc349
+0.1901
+ контроля поперечных стыковых соединений трубопроводов, указанных в п. 4, б, г настоящей таблицы. *8 Ультразвуковой контроль труб с литыми деталями проводится только со стороны трубы. *9 Для сварных соединений на участках от основного трубопровода до первой запорной задвижки с ручным управлением. *10 Для стыковых швов, подвергаемых УЗД. Примечания. 1. УЗД - ультразвуковой контроль; Р - радиографический контроль; УЗД-Р - ультразвуковой или радиографический контроль (первым указан более предпочтительный метод). 2. В графе 7 в скобках приведен объем неразрушающего контроля с указанием Минэнерго СССР № С-371-14 от 10.11.89, который является обязательным для объектов Минэнерго России. 126 Таблица 18.5 Объемы контроля неразрушающими методами сварных соединений трубопроводов, на которые не распространяются правила Госгортехнадзора России Изделие, сварное соединение Рабочее давление, МПа Метод Объем контроля, Минимальное число Дополнительный объем (кгс/см2) контроля %*1, не менее контролируемы</t>
+  </si>
+  <si>
+    <t>doc559
+0.1857
+ЕНИЕ №_______ по ультразвуковому контролю сварных соединений Проверка _____________________________________________________ сварных соединений (стыковых, угловых) _______________________________________________________________________________ (наименование трубопровода, узла) по схеме (формуляру) № ________ проводилась в соответствии с ________________________ (наименование НТД) ультразвуковым дефектоскопом типа _______________________________________________ рабочая частота ____________________ МГц, угол призмы искателя _____________________ Результаты Номер Диаметр и Положение и Описание Наибольшие Оценка Номер стыка по толщина размеры обнаруженных допустимые размеры результатов записи в схеме или стыкуемых труб недоступных для дефектов эквивалентного контроля, журнале формуляру или элементов, мм контроля участков дефекта, мм баллы УЗК Мастер по контролю ________________________ (фамилия, инициалы) (подпись) Контроль провел ____________________________ (фамилия, инициалы) (подпись) 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,17 +181,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,9 +237,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,24 +482,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="12" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,137 +532,53 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>3616</v>
+        <v>3473</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3619</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3653</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4118</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J5"/>
+  <autoFilter ref="A1:L2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>